--- a/src/test/resources/testdata/GasMileageTestData.xlsx
+++ b/src/test/resources/testdata/GasMileageTestData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/eclipse-workspace/cucumber-testng-automation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{36A4041C-C7F8-5143-B925-8D0762B2CEA1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1C2C1FB3-3D1B-7A41-9A5B-9015FC24C7D6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="23040" xr2:uid="{36D6DC55-F1C2-3547-9F0D-E2C7FC6615AB}"/>
+    <workbookView windowHeight="20980" windowWidth="40960" xWindow="0" xr2:uid="{36D6DC55-F1C2-3547-9F0D-E2C7FC6615AB}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -52,12 +52,28 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t>222.27</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>102.88</t>
+  </si>
+  <si>
+    <t>215.17</t>
+  </si>
+  <si>
+    <t>50.00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -99,17 +115,17 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -126,10 +142,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -164,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -216,7 +232,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -327,21 +343,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -358,7 +374,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -410,18 +426,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C01B1-01DC-5E49-84F4-3189EE057B32}">
-  <dimension ref="A1:H5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C01B1-01DC-5E49-84F4-3189EE057B32}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="370" zoomScaleNormal="370" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="370" zoomScaleNormal="370">
+      <selection activeCell="E2" sqref="E2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,6 +481,15 @@
       <c r="D2">
         <v>100</v>
       </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -479,6 +504,15 @@
       <c r="D3">
         <v>120</v>
       </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -493,6 +527,15 @@
       <c r="D4">
         <v>35</v>
       </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -507,9 +550,18 @@
       <c r="D5">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/src/test/resources/testdata/GasMileageTestData.xlsx
+++ b/src/test/resources/testdata/GasMileageTestData.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cybertekschool/eclipse-workspace/cucumber-testng-automation/src/test/resources/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{1C2C1FB3-3D1B-7A41-9A5B-9015FC24C7D6}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36AE7E3-428A-654D-A1D9-8A9B1AF0B309}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowHeight="20980" windowWidth="40960" xWindow="0" xr2:uid="{36D6DC55-F1C2-3547-9F0D-E2C7FC6615AB}" yWindow="460"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="40960" windowHeight="20980" xr2:uid="{36D6DC55-F1C2-3547-9F0D-E2C7FC6615AB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$12</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="34">
   <si>
     <t>Execute</t>
   </si>
@@ -67,13 +70,72 @@
   </si>
   <si>
     <t>50.00</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:13:57.459</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:15:16.198</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Skip Requested</t>
+  </si>
+  <si>
+    <t>2590.08</t>
+  </si>
+  <si>
+    <t>15.02</t>
+  </si>
+  <si>
+    <t>7792.67</t>
+  </si>
+  <si>
+    <t>8.25</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>1136.67</t>
+  </si>
+  <si>
+    <t>4.24</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:30.129</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:31.016</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:32.350</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:33.098</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:34.191</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:35.102</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:35.994</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:36.798</t>
+  </si>
+  <si>
+    <t>2018-03-28T21:55:37.519</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -115,17 +177,19 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -142,10 +206,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -180,7 +244,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -232,7 +296,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -343,21 +407,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -374,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -426,18 +490,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C01B1-01DC-5E49-84F4-3189EE057B32}">
-  <dimension ref="A1:I5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A4C01B1-01DC-5E49-84F4-3189EE057B32}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="370" zoomScaleNormal="370">
-      <selection activeCell="E2" sqref="E2:F5"/>
+    <sheetView tabSelected="1" zoomScale="378" zoomScaleNormal="370" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,10 +554,13 @@
       <c r="G2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B3">
         <v>123456</v>
@@ -511,12 +578,15 @@
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B4">
         <v>9876</v>
@@ -534,7 +604,10 @@
         <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -559,9 +632,195 @@
       <c r="G5" t="s">
         <v>10</v>
       </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>34534</v>
+      </c>
+      <c r="C6">
+        <v>3453</v>
+      </c>
+      <c r="D6">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>654</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>23423</v>
+      </c>
+      <c r="C8">
+        <v>45</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>534</v>
+      </c>
+      <c r="C9">
+        <v>435</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>3453</v>
+      </c>
+      <c r="C11">
+        <v>43</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>345</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="0" orientation="portrait" verticalDpi="0"/>
+  <autoFilter ref="A1:H12" xr:uid="{52D601F3-2F7E-3C46-A79E-A810E84A2953}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>